--- a/data/csv_pop/population_census_panel_1980_2020_female_age20_39.xlsx
+++ b/data/csv_pop/population_census_panel_1980_2020_female_age20_39.xlsx
@@ -12465,6 +12465,12 @@
       <c r="D403">
         <v>1028</v>
       </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>-100</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404">
@@ -21574,6 +21580,9 @@
       <c r="C689">
         <v>83</v>
       </c>
+      <c r="D689">
+        <v>17</v>
+      </c>
       <c r="F689">
         <v>67</v>
       </c>
@@ -21582,6 +21591,9 @@
       </c>
       <c r="I689">
         <v>-19.27710843373493</v>
+      </c>
+      <c r="J689">
+        <v>52.94117647058822</v>
       </c>
     </row>
     <row r="690">
@@ -36183,9 +36195,6 @@
       </c>
       <c r="D1157">
         <v>219053</v>
-      </c>
-      <c r="E1157">
-        <v>1998</v>
       </c>
       <c r="F1157">
         <v>808700</v>
